--- a/data/get_data/relay_candidate_nodes_evaluation.xlsx
+++ b/data/get_data/relay_candidate_nodes_evaluation.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04207AE0-16E8-4025-B9D2-6CCCEC10BA22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B64EC3C-864F-48D6-A30B-367D21D7DF97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>PDR</t>
     <phoneticPr fontId="1"/>
@@ -3809,16 +3818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3881,16 +3890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3917,16 +3926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4217,10 +4226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -4352,6 +4361,133 @@
         <v>10.9513871188952</v>
       </c>
     </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>C4* 100</f>
+        <v>4.4897958999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.5114689999999997E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>24.05102041</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.8646258499999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C18" si="0">C5* 100</f>
+        <v>0.40816326530612196</v>
+      </c>
+      <c r="D14">
+        <v>8.8700000000000001E-5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12.387755102040799</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.28571428571428498</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>17.755102040816301</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.3957239601554899E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>32.1517006802721</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.9908210037261593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>50.408163299999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.3756968999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20.851287660000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10.83842999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>72.244897959183589</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.90812900145772E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>19.525696469063799</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10.9167149691114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>78.121827411167502</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.95763923495286E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19.220264281685601</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10.9513871188952</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
